--- a/src/main/java/tech/credify/testData/TestData.xlsx
+++ b/src/main/java/tech/credify/testData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
   <si>
     <t>userLoanAmount</t>
   </si>

--- a/src/main/java/tech/credify/testData/TestData.xlsx
+++ b/src/main/java/tech/credify/testData/TestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="10">
   <si>
     <t>userLoanAmount</t>
   </si>
